--- a/Sade Sati Report.xlsx
+++ b/Sade Sati Report.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Personal\Planning\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="132" windowWidth="22980" windowHeight="9528"/>
+    <workbookView xWindow="0" yWindow="135" windowWidth="22980" windowHeight="9525"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="18">
   <si>
     <t>S.N.</t>
   </si>
@@ -67,6 +72,9 @@
   </si>
   <si>
     <t>Aq</t>
+  </si>
+  <si>
+    <t>some changes</t>
   </si>
 </sst>
 </file>
@@ -317,13 +325,13 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -338,6 +346,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -386,7 +397,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -421,7 +432,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -630,22 +641,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F48"/>
+  <dimension ref="A1:H48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.33203125" customWidth="1"/>
-    <col min="3" max="3" width="16.21875" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" customWidth="1"/>
-    <col min="5" max="5" width="15.88671875" customWidth="1"/>
+    <col min="2" max="3" width="16.28515625" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="5"/>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -653,37 +663,37 @@
       <c r="E1" s="6"/>
       <c r="F1" s="7"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="12" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="14" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11"/>
-      <c r="B3" s="14"/>
+      <c r="B3" s="13"/>
       <c r="C3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
       <c r="F3" s="15"/>
     </row>
-    <row r="4" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>1</v>
       </c>
@@ -701,7 +711,7 @@
       </c>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <v>2</v>
       </c>
@@ -721,7 +731,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <v>3</v>
       </c>
@@ -741,7 +751,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <v>4</v>
       </c>
@@ -760,8 +770,11 @@
       <c r="F7" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="8">
         <v>5</v>
       </c>
@@ -781,7 +794,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
         <v>6</v>
       </c>
@@ -801,7 +814,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="8">
         <v>7</v>
       </c>
@@ -821,7 +834,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="8">
         <v>8</v>
       </c>
@@ -839,7 +852,7 @@
       </c>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="8">
         <v>9</v>
       </c>
@@ -857,7 +870,7 @@
       </c>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="8">
         <v>10</v>
       </c>
@@ -875,7 +888,7 @@
       </c>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="8">
         <v>11</v>
       </c>
@@ -893,7 +906,7 @@
       </c>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="8">
         <v>12</v>
       </c>
@@ -911,7 +924,7 @@
       </c>
       <c r="F15" s="3"/>
     </row>
-    <row r="16" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="8">
         <v>13</v>
       </c>
@@ -929,7 +942,7 @@
       </c>
       <c r="F16" s="3"/>
     </row>
-    <row r="17" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="8">
         <v>14</v>
       </c>
@@ -949,7 +962,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="8">
         <v>15</v>
       </c>
@@ -969,7 +982,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="8">
         <v>16</v>
       </c>
@@ -989,7 +1002,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="8">
         <v>17</v>
       </c>
@@ -1009,7 +1022,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="8">
         <v>18</v>
       </c>
@@ -1029,7 +1042,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="8">
         <v>19</v>
       </c>
@@ -1049,7 +1062,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="8">
         <v>20</v>
       </c>
@@ -1067,7 +1080,7 @@
       </c>
       <c r="F23" s="3"/>
     </row>
-    <row r="24" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="8">
         <v>21</v>
       </c>
@@ -1085,7 +1098,7 @@
       </c>
       <c r="F24" s="3"/>
     </row>
-    <row r="25" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="8">
         <v>22</v>
       </c>
@@ -1103,7 +1116,7 @@
       </c>
       <c r="F25" s="3"/>
     </row>
-    <row r="26" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="8">
         <v>23</v>
       </c>
@@ -1123,7 +1136,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="8">
         <v>24</v>
       </c>
@@ -1143,7 +1156,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="8">
         <v>25</v>
       </c>
@@ -1163,7 +1176,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="8">
         <v>26</v>
       </c>
@@ -1183,7 +1196,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="8">
         <v>27</v>
       </c>
@@ -1203,7 +1216,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="8">
         <v>28</v>
       </c>
@@ -1223,7 +1236,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="8">
         <v>29</v>
       </c>
@@ -1243,7 +1256,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="8">
         <v>30</v>
       </c>
@@ -1261,7 +1274,7 @@
       </c>
       <c r="F33" s="3"/>
     </row>
-    <row r="34" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="8">
         <v>31</v>
       </c>
@@ -1279,7 +1292,7 @@
       </c>
       <c r="F34" s="3"/>
     </row>
-    <row r="35" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="8">
         <v>32</v>
       </c>
@@ -1297,7 +1310,7 @@
       </c>
       <c r="F35" s="3"/>
     </row>
-    <row r="36" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="8">
         <v>33</v>
       </c>
@@ -1315,7 +1328,7 @@
       </c>
       <c r="F36" s="3"/>
     </row>
-    <row r="37" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="8">
         <v>34</v>
       </c>
@@ -1333,7 +1346,7 @@
       </c>
       <c r="F37" s="3"/>
     </row>
-    <row r="38" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="8">
         <v>35</v>
       </c>
@@ -1353,7 +1366,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="8">
         <v>36</v>
       </c>
@@ -1373,7 +1386,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="8">
         <v>37</v>
       </c>
@@ -1393,7 +1406,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="8">
         <v>38</v>
       </c>
@@ -1413,7 +1426,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="8">
         <v>39</v>
       </c>
@@ -1433,7 +1446,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="8">
         <v>40</v>
       </c>
@@ -1453,7 +1466,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="8">
         <v>41</v>
       </c>
@@ -1473,7 +1486,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="8">
         <v>42</v>
       </c>
@@ -1491,7 +1504,7 @@
       </c>
       <c r="F45" s="3"/>
     </row>
-    <row r="46" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="8">
         <v>43</v>
       </c>
@@ -1509,7 +1522,7 @@
       </c>
       <c r="F46" s="3"/>
     </row>
-    <row r="47" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="8">
         <v>44</v>
       </c>
@@ -1527,7 +1540,7 @@
       </c>
       <c r="F47" s="3"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="8">
         <v>45</v>
       </c>
@@ -1564,7 +1577,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1576,7 +1589,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
